--- a/Code/Results/Cases/Case_2_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.9154948419485</v>
+        <v>28.38421571448552</v>
       </c>
       <c r="C2">
-        <v>18.22569293950205</v>
+        <v>11.17112742013186</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.91057043661131</v>
+        <v>9.966375593026774</v>
       </c>
       <c r="F2">
-        <v>42.50961612452863</v>
+        <v>50.95377225451496</v>
       </c>
       <c r="G2">
-        <v>2.098643476670439</v>
+        <v>3.75584773364357</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.410842591765157</v>
+        <v>10.53001651883042</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.877590880713846</v>
+        <v>11.60666337330299</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.57922049344075</v>
+        <v>21.58009586826574</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.06949122314786</v>
+        <v>28.01066546359994</v>
       </c>
       <c r="C3">
-        <v>16.87233780066775</v>
+        <v>10.66285483182122</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.776527432812151</v>
+        <v>9.945332846457788</v>
       </c>
       <c r="F3">
-        <v>40.9207112789501</v>
+        <v>50.78604654158608</v>
       </c>
       <c r="G3">
-        <v>2.113098611526889</v>
+        <v>3.760749278433119</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.490752949001961</v>
+        <v>10.55943188511145</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.727998069716278</v>
+        <v>11.61670669224455</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.78970962867494</v>
+        <v>21.63668320938842</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.90567735173879</v>
+        <v>27.78770282930379</v>
       </c>
       <c r="C4">
-        <v>16.00478499274861</v>
+        <v>10.34204414884653</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.69550097144746</v>
+        <v>9.932240218206308</v>
       </c>
       <c r="F4">
-        <v>39.96183763782844</v>
+        <v>50.69555784195282</v>
       </c>
       <c r="G4">
-        <v>2.122125762023324</v>
+        <v>3.763911430104563</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.542568028396885</v>
+        <v>10.57864476482488</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.638574221867334</v>
+        <v>11.62471092831302</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.92379263843365</v>
+        <v>21.67342288326188</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.42399572854242</v>
+        <v>27.69856094908152</v>
       </c>
       <c r="C5">
-        <v>15.6417955436544</v>
+        <v>10.20932920110105</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.662729286330132</v>
+        <v>9.926860680762474</v>
       </c>
       <c r="F5">
-        <v>39.57545009748577</v>
+        <v>50.66183917060201</v>
       </c>
       <c r="G5">
-        <v>2.125847459249955</v>
+        <v>3.76523856552908</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.564347449165801</v>
+        <v>10.58676387909527</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.602764004305094</v>
+        <v>11.62843527971425</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.97961528413493</v>
+        <v>21.68889595666347</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.34357363955463</v>
+        <v>27.68386580757438</v>
       </c>
       <c r="C6">
-        <v>15.58094347070528</v>
+        <v>10.18717905162543</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.65730051338477</v>
+        <v>9.925964718891962</v>
       </c>
       <c r="F6">
-        <v>39.51155973634675</v>
+        <v>50.65643117572078</v>
       </c>
       <c r="G6">
-        <v>2.126468180058468</v>
+        <v>3.765461267476163</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.568003324413181</v>
+        <v>10.58812955278169</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.596856466936811</v>
+        <v>11.62908165511815</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.9889551442515</v>
+        <v>21.69149552255223</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.89921088123412</v>
+        <v>27.78649353770869</v>
       </c>
       <c r="C7">
-        <v>15.99992818817811</v>
+        <v>10.34026203164988</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.695058091108235</v>
+        <v>9.932167847927381</v>
       </c>
       <c r="F7">
-        <v>39.95660877559681</v>
+        <v>50.69509030487953</v>
       </c>
       <c r="G7">
-        <v>2.122175773614797</v>
+        <v>3.763929172078905</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.542859095817407</v>
+        <v>10.57875308886067</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.63808869072257</v>
+        <v>11.62475928275</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.9245407340352</v>
+        <v>21.67362952885555</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.28538439417756</v>
+        <v>28.25415356007875</v>
       </c>
       <c r="C8">
-        <v>17.76648756329712</v>
+        <v>10.9978061397709</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.864040224427221</v>
+        <v>9.959155292723725</v>
       </c>
       <c r="F8">
-        <v>41.95836663504749</v>
+        <v>50.89335654416418</v>
       </c>
       <c r="G8">
-        <v>2.10359926030154</v>
+        <v>3.757506216979974</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.437807145593139</v>
+        <v>10.53991995324069</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.825519275114147</v>
+        <v>11.60974523088471</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.65076892537019</v>
+        <v>21.59919300205521</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.7209499692591</v>
+        <v>29.21708941699994</v>
       </c>
       <c r="C9">
-        <v>20.95353043262776</v>
+        <v>12.20998092431624</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.209415129198299</v>
+        <v>10.01075084981769</v>
       </c>
       <c r="F9">
-        <v>46.013478683845</v>
+        <v>51.38051970308705</v>
       </c>
       <c r="G9">
-        <v>2.068121869207081</v>
+        <v>3.746113986542019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.255127220227872</v>
+        <v>10.47290246704583</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.211578715301664</v>
+        <v>11.59485954363822</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.15434082742291</v>
+        <v>21.46906223342123</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.00498440132783</v>
+        <v>29.94578383048765</v>
       </c>
       <c r="C10">
-        <v>23.14730406258989</v>
+        <v>13.04446631763255</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.478141165562651</v>
+        <v>10.04790747198954</v>
       </c>
       <c r="F10">
-        <v>49.07542801791239</v>
+        <v>51.79712355238038</v>
       </c>
       <c r="G10">
-        <v>2.042229806110062</v>
+        <v>3.738467067137738</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.137791748075732</v>
+        <v>10.42922764711887</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.505858953847312</v>
+        <v>11.5927616285874</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.81797896493554</v>
+        <v>21.38312584527427</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.48375147437182</v>
+        <v>30.28045088870332</v>
       </c>
       <c r="C11">
-        <v>24.11896258384634</v>
+        <v>13.41044953677648</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.605458947452926</v>
+        <v>10.06466066263286</v>
       </c>
       <c r="F11">
-        <v>50.4897714361486</v>
+        <v>51.99904356565127</v>
       </c>
       <c r="G11">
-        <v>2.030378343592516</v>
+        <v>3.735143008652261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.088879035662497</v>
+        <v>10.41056600486396</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.642046642092913</v>
+        <v>11.5937168388867</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.67228877255472</v>
+        <v>21.34613496303335</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.03880665879601</v>
+        <v>30.40751822963791</v>
       </c>
       <c r="C12">
-        <v>24.48369963863929</v>
+        <v>13.5469807167235</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.65458975157788</v>
+        <v>10.07098412766409</v>
       </c>
       <c r="F12">
-        <v>51.02893257990668</v>
+        <v>52.07725438637305</v>
       </c>
       <c r="G12">
-        <v>2.025868874053131</v>
+        <v>3.733906324977831</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.071086698391013</v>
+        <v>10.40367279894361</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.693962630645607</v>
+        <v>11.59435211843758</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.6183050008482</v>
+        <v>21.33243023566319</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.91947265825135</v>
+        <v>30.38013895852972</v>
       </c>
       <c r="C13">
-        <v>24.40527948926204</v>
+        <v>13.51766925415571</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.643964287217422</v>
+        <v>10.06962315837254</v>
       </c>
       <c r="F13">
-        <v>50.91264527247112</v>
+        <v>52.06033314184082</v>
       </c>
       <c r="G13">
-        <v>2.026841226446261</v>
+        <v>3.734171688142556</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.074884514829304</v>
+        <v>10.40514965358923</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.682765957687788</v>
+        <v>11.59420315047503</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.62987614655878</v>
+        <v>21.33536831073034</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.52951062792378</v>
+        <v>30.29089874407056</v>
       </c>
       <c r="C14">
-        <v>24.14903038973445</v>
+        <v>13.42172380936643</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.609481344395545</v>
+        <v>10.06518130567946</v>
       </c>
       <c r="F14">
-        <v>50.53405323375495</v>
+        <v>52.00544319832371</v>
       </c>
       <c r="G14">
-        <v>2.030007849781474</v>
+        <v>3.735040824645712</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.087400045324934</v>
+        <v>10.4099954177817</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.646310787390131</v>
+        <v>11.5937636274253</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.66782284555186</v>
+        <v>21.34500139208298</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.29002825263109</v>
+        <v>30.2362767573507</v>
       </c>
       <c r="C15">
-        <v>23.9916712375027</v>
+        <v>13.36268368298853</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.588485396474623</v>
+        <v>10.06245788610794</v>
       </c>
       <c r="F15">
-        <v>50.30263906703063</v>
+        <v>51.97204806250786</v>
       </c>
       <c r="G15">
-        <v>2.031944325673609</v>
+        <v>3.735576064606999</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.095164173611924</v>
+        <v>10.41298619319256</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.624026363604417</v>
+        <v>11.59353000023638</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.69122525450912</v>
+        <v>21.35094140132613</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.90761649064586</v>
+        <v>29.92396614823252</v>
       </c>
       <c r="C16">
-        <v>23.08332143376674</v>
+        <v>13.02026538413177</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.469938030148955</v>
+        <v>10.04680967917023</v>
       </c>
       <c r="F16">
-        <v>48.98346682349942</v>
+        <v>51.78417424250482</v>
       </c>
       <c r="G16">
-        <v>2.043001953990581</v>
+        <v>3.738687398632701</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.141085203055955</v>
+        <v>10.43047150985424</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.497006124845938</v>
+        <v>11.59273754308386</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.82765814183065</v>
+        <v>21.38558563882781</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.05005357606005</v>
+        <v>29.73310149162702</v>
       </c>
       <c r="C17">
-        <v>22.51971994569868</v>
+        <v>12.80663664818326</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.398635370118509</v>
+        <v>10.03717234796867</v>
       </c>
       <c r="F17">
-        <v>48.17998239436949</v>
+        <v>51.67207253441136</v>
       </c>
       <c r="G17">
-        <v>2.04975944990795</v>
+        <v>3.74063557417365</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.170456095162135</v>
+        <v>10.44150719625468</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.419681615330961</v>
+        <v>11.5927397832701</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.91331547602395</v>
+        <v>21.40737758045353</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.55311771292683</v>
+        <v>29.62362769146716</v>
       </c>
       <c r="C18">
-        <v>22.19303628774839</v>
+        <v>12.6824850916694</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.358088191484475</v>
+        <v>10.03161508017743</v>
       </c>
       <c r="F18">
-        <v>47.71981749207601</v>
+        <v>51.60876454631519</v>
       </c>
       <c r="G18">
-        <v>2.053640073300511</v>
+        <v>3.741770671083263</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.187763295467773</v>
+        <v>10.44796816234116</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.37542349990285</v>
+        <v>11.59292087760686</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.96326286198246</v>
+        <v>21.42010953865235</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.38421307756304</v>
+        <v>29.5866181073846</v>
       </c>
       <c r="C19">
-        <v>22.08197896077737</v>
+        <v>12.64023330108089</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.344434182348911</v>
+        <v>10.02973103069325</v>
       </c>
       <c r="F19">
-        <v>47.56434136259011</v>
+        <v>51.58753152427376</v>
       </c>
       <c r="G19">
-        <v>2.054953243392963</v>
+        <v>3.742157500622206</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.193691927865543</v>
+        <v>10.45017523095427</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.360475551627428</v>
+        <v>11.59301310442018</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.98028736673957</v>
+        <v>21.42445431579455</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.1417201571161</v>
+        <v>29.7533885220852</v>
       </c>
       <c r="C20">
-        <v>22.57997273738492</v>
+        <v>12.82951082379363</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.406176364487774</v>
+        <v>10.03819971420294</v>
       </c>
       <c r="F20">
-        <v>48.26530699481388</v>
+        <v>51.68388511581702</v>
       </c>
       <c r="G20">
-        <v>2.049040809407235</v>
+        <v>3.740426682044055</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.1672861082104</v>
+        <v>10.44032067793946</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.427890447439231</v>
+        <v>11.59272094269062</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.90412591506059</v>
+        <v>21.40503731395048</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.64417964492588</v>
+        <v>30.31710258929564</v>
       </c>
       <c r="C21">
-        <v>24.22437898159867</v>
+        <v>13.44996189534287</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.61958320062628</v>
+        <v>10.06648653750366</v>
       </c>
       <c r="F21">
-        <v>50.64515276917228</v>
+        <v>52.02151856274769</v>
       </c>
       <c r="G21">
-        <v>2.029078419490004</v>
+        <v>3.734784940626865</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.083703320004997</v>
+        <v>10.40856738832391</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.657009051861927</v>
+        <v>11.59388531037055</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.65664356712818</v>
+        <v>21.34216369608973</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.25140430716267</v>
+        <v>30.68742732887587</v>
       </c>
       <c r="C22">
-        <v>25.28073305533354</v>
+        <v>13.84342763721294</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.764527004181366</v>
+        <v>10.084853933265</v>
       </c>
       <c r="F22">
-        <v>52.2217704621365</v>
+        <v>52.25235201667956</v>
       </c>
       <c r="G22">
-        <v>2.015899408900418</v>
+        <v>3.731226274323352</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.033387808291788</v>
+        <v>10.38882643771372</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.80877447113459</v>
+        <v>11.59624026431456</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.50189971347909</v>
+        <v>21.30283811754617</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.39593312009954</v>
+        <v>30.4896431837013</v>
       </c>
       <c r="C23">
-        <v>24.71840002313852</v>
+        <v>13.63455743655829</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.686594291392768</v>
+        <v>10.07506156052845</v>
       </c>
       <c r="F23">
-        <v>51.3781366335175</v>
+        <v>52.12823386169019</v>
       </c>
       <c r="G23">
-        <v>2.022949613322599</v>
+        <v>3.733113893424147</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.059813057761649</v>
+        <v>10.39926995030477</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.727582366493575</v>
+        <v>11.59483790188933</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.58379577781204</v>
+        <v>21.32366510638106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.10028992569945</v>
+        <v>29.7442159464253</v>
       </c>
       <c r="C24">
-        <v>22.55274078237782</v>
+        <v>12.81917355503657</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.402765706367881</v>
+        <v>10.03773529381916</v>
       </c>
       <c r="F24">
-        <v>48.22672626762884</v>
+        <v>51.6785410918277</v>
       </c>
       <c r="G24">
-        <v>2.049365719525167</v>
+        <v>3.740521075240168</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.168717952914161</v>
+        <v>10.4408567403073</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.424178622195623</v>
+        <v>11.59272890038292</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.90827833920062</v>
+        <v>21.40609471468834</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.54698427946152</v>
+        <v>28.95237091175497</v>
       </c>
       <c r="C25">
-        <v>20.1190155441052</v>
+        <v>11.89134443317788</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.113883396861452</v>
+        <v>9.996928916878545</v>
       </c>
       <c r="F25">
-        <v>44.90262294769224</v>
+        <v>51.23831634227832</v>
       </c>
       <c r="G25">
-        <v>2.077656105801068</v>
+        <v>3.749068168753439</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.3018102492743</v>
+        <v>10.49005524251856</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.105244285803114</v>
+        <v>11.59733136582204</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.28398212195218</v>
+        <v>21.50256900031225</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.38421571448552</v>
+        <v>29.91549484194848</v>
       </c>
       <c r="C2">
-        <v>11.17112742013186</v>
+        <v>18.22569293950187</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.966375593026774</v>
+        <v>5.910570436611176</v>
       </c>
       <c r="F2">
-        <v>50.95377225451496</v>
+        <v>42.50961612452885</v>
       </c>
       <c r="G2">
-        <v>3.75584773364357</v>
+        <v>2.098643476670567</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.53001651883042</v>
+        <v>6.41084259176533</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.60666337330299</v>
+        <v>6.877590880713916</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.58009586826574</v>
+        <v>14.57922049344097</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.01066546359994</v>
+        <v>28.06949122314786</v>
       </c>
       <c r="C3">
-        <v>10.66285483182122</v>
+        <v>16.87233780066781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.945332846457788</v>
+        <v>5.776527432811954</v>
       </c>
       <c r="F3">
-        <v>50.78604654158608</v>
+        <v>40.9207112789501</v>
       </c>
       <c r="G3">
-        <v>3.760749278433119</v>
+        <v>2.113098611526758</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.55943188511145</v>
+        <v>6.490752949001924</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.61670669224455</v>
+        <v>6.72799806971615</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.63668320938842</v>
+        <v>14.78970962867497</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.78770282930379</v>
+        <v>26.90567735173881</v>
       </c>
       <c r="C4">
-        <v>10.34204414884653</v>
+        <v>16.00478499274854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.932240218206308</v>
+        <v>5.695500971447455</v>
       </c>
       <c r="F4">
-        <v>50.69555784195282</v>
+        <v>39.96183763782859</v>
       </c>
       <c r="G4">
-        <v>3.763911430104563</v>
+        <v>2.12212576202359</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.57864476482488</v>
+        <v>6.542568028396946</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.62471092831302</v>
+        <v>6.638574221867327</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.67342288326188</v>
+        <v>14.92379263843376</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.69856094908152</v>
+        <v>26.42399572854242</v>
       </c>
       <c r="C5">
-        <v>10.20932920110105</v>
+        <v>15.64179554365426</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.926860680762474</v>
+        <v>5.662729286330199</v>
       </c>
       <c r="F5">
-        <v>50.66183917060201</v>
+        <v>39.57545009748593</v>
       </c>
       <c r="G5">
-        <v>3.76523856552908</v>
+        <v>2.125847459249956</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.58676387909527</v>
+        <v>6.564347449165949</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.62843527971425</v>
+        <v>6.60276400430521</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.68889595666347</v>
+        <v>14.97961528413505</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.68386580757438</v>
+        <v>26.34357363955456</v>
       </c>
       <c r="C6">
-        <v>10.18717905162543</v>
+        <v>15.58094347070545</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.925964718891962</v>
+        <v>5.65730051338504</v>
       </c>
       <c r="F6">
-        <v>50.65643117572078</v>
+        <v>39.51155973634633</v>
       </c>
       <c r="G6">
-        <v>3.765461267476163</v>
+        <v>2.126468180058999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.58812955278169</v>
+        <v>6.568003324413101</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.62908165511815</v>
+        <v>6.596856466936909</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.69149552255223</v>
+        <v>14.98895514425118</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.78649353770869</v>
+        <v>26.89921088123413</v>
       </c>
       <c r="C7">
-        <v>10.34026203164988</v>
+        <v>15.99992818817817</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.932167847927381</v>
+        <v>5.695058091108101</v>
       </c>
       <c r="F7">
-        <v>50.69509030487953</v>
+        <v>39.95660877559685</v>
       </c>
       <c r="G7">
-        <v>3.763929172078905</v>
+        <v>2.12217577361479</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.57875308886067</v>
+        <v>6.542859095817308</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.62475928275</v>
+        <v>6.638088690722505</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.67362952885555</v>
+        <v>14.92454073403522</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.25415356007875</v>
+        <v>29.28538439417756</v>
       </c>
       <c r="C8">
-        <v>10.9978061397709</v>
+        <v>17.76648756329728</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.959155292723725</v>
+        <v>5.864040224427483</v>
       </c>
       <c r="F8">
-        <v>50.89335654416418</v>
+        <v>41.95836663504752</v>
       </c>
       <c r="G8">
-        <v>3.757506216979974</v>
+        <v>2.103599260301676</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.53991995324069</v>
+        <v>6.437807145593208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.60974523088471</v>
+        <v>6.825519275114214</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.59919300205521</v>
+        <v>14.65076892537014</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.21708941699994</v>
+        <v>33.72094996925916</v>
       </c>
       <c r="C9">
-        <v>12.20998092431624</v>
+        <v>20.9535304326277</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.01075084981769</v>
+        <v>6.20941512919824</v>
       </c>
       <c r="F9">
-        <v>51.38051970308705</v>
+        <v>46.01347868384511</v>
       </c>
       <c r="G9">
-        <v>3.746113986542019</v>
+        <v>2.06812186920722</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.47290246704583</v>
+        <v>6.25512722022792</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.59485954363822</v>
+        <v>7.21157871530163</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.46906223342123</v>
+        <v>14.15434082742295</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.94578383048765</v>
+        <v>37.00498440132785</v>
       </c>
       <c r="C10">
-        <v>13.04446631763255</v>
+        <v>23.14730406258994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.04790747198954</v>
+        <v>6.478141165562645</v>
       </c>
       <c r="F10">
-        <v>51.79712355238038</v>
+        <v>49.07542801791234</v>
       </c>
       <c r="G10">
-        <v>3.738467067137738</v>
+        <v>2.042229806110059</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.42922764711887</v>
+        <v>6.137791748075787</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.5927616285874</v>
+        <v>7.50585895384732</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.38312584527427</v>
+        <v>13.81797896493549</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.28045088870332</v>
+        <v>38.48375147437181</v>
       </c>
       <c r="C11">
-        <v>13.41044953677648</v>
+        <v>24.11896258384626</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.06466066263286</v>
+        <v>6.605458947453051</v>
       </c>
       <c r="F11">
-        <v>51.99904356565127</v>
+        <v>50.48977143614866</v>
       </c>
       <c r="G11">
-        <v>3.735143008652261</v>
+        <v>2.030378343592525</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.41056600486396</v>
+        <v>6.088879035662529</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.5937168388867</v>
+        <v>7.642046642092995</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.34613496303335</v>
+        <v>13.67228877255469</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.40751822963791</v>
+        <v>39.03880665879612</v>
       </c>
       <c r="C12">
-        <v>13.5469807167235</v>
+        <v>24.48369963863934</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.07098412766409</v>
+        <v>6.654589751577944</v>
       </c>
       <c r="F12">
-        <v>52.07725438637305</v>
+        <v>51.02893257990666</v>
       </c>
       <c r="G12">
-        <v>3.733906324977831</v>
+        <v>2.025868874053127</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.40367279894361</v>
+        <v>6.071086698390948</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.59435211843758</v>
+        <v>7.69396263064557</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.33243023566319</v>
+        <v>13.6183050008481</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.38013895852972</v>
+        <v>38.91947265825139</v>
       </c>
       <c r="C13">
-        <v>13.51766925415571</v>
+        <v>24.40527948926198</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.06962315837254</v>
+        <v>6.643964287217491</v>
       </c>
       <c r="F13">
-        <v>52.06033314184082</v>
+        <v>50.91264527247112</v>
       </c>
       <c r="G13">
-        <v>3.734171688142556</v>
+        <v>2.02684122644639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.40514965358923</v>
+        <v>6.07488451482927</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.59420315047503</v>
+        <v>7.682765957687803</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.33536831073034</v>
+        <v>13.62987614655876</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.29089874407056</v>
+        <v>38.52951062792359</v>
       </c>
       <c r="C14">
-        <v>13.42172380936643</v>
+        <v>24.14903038973437</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.06518130567946</v>
+        <v>6.609481344395274</v>
       </c>
       <c r="F14">
-        <v>52.00544319832371</v>
+        <v>50.53405323375478</v>
       </c>
       <c r="G14">
-        <v>3.735040824645712</v>
+        <v>2.030007849781339</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.4099954177817</v>
+        <v>6.087400045324927</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.5937636274253</v>
+        <v>7.646310787390073</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.34500139208298</v>
+        <v>13.66782284555186</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.2362767573507</v>
+        <v>38.29002825263105</v>
       </c>
       <c r="C15">
-        <v>13.36268368298853</v>
+        <v>23.99167123750283</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.06245788610794</v>
+        <v>6.588485396474762</v>
       </c>
       <c r="F15">
-        <v>51.97204806250786</v>
+        <v>50.30263906703065</v>
       </c>
       <c r="G15">
-        <v>3.735576064606999</v>
+        <v>2.031944325673609</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.41298619319256</v>
+        <v>6.095164173611973</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.59353000023638</v>
+        <v>7.624026363604461</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.35094140132613</v>
+        <v>13.69122525450917</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92396614823252</v>
+        <v>36.90761649064589</v>
       </c>
       <c r="C16">
-        <v>13.02026538413177</v>
+        <v>23.08332143376667</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.04680967917023</v>
+        <v>6.46993803014896</v>
       </c>
       <c r="F16">
-        <v>51.78417424250482</v>
+        <v>48.98346682349942</v>
       </c>
       <c r="G16">
-        <v>3.738687398632701</v>
+        <v>2.043001953990451</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.43047150985424</v>
+        <v>6.14108520305598</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.59273754308386</v>
+        <v>7.497006124845945</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.38558563882781</v>
+        <v>13.82765814183067</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.73310149162702</v>
+        <v>36.05005357605997</v>
       </c>
       <c r="C17">
-        <v>12.80663664818326</v>
+        <v>22.51971994569871</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.03717234796867</v>
+        <v>6.398635370118637</v>
       </c>
       <c r="F17">
-        <v>51.67207253441136</v>
+        <v>48.17998239436946</v>
       </c>
       <c r="G17">
-        <v>3.74063557417365</v>
+        <v>2.049759449908072</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.44150719625468</v>
+        <v>6.170456095162188</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.5927397832701</v>
+        <v>7.41968161533102</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.40737758045353</v>
+        <v>13.91331547602398</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.62362769146716</v>
+        <v>35.55311771292679</v>
       </c>
       <c r="C18">
-        <v>12.6824850916694</v>
+        <v>22.1930362877483</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.03161508017743</v>
+        <v>6.358088191484597</v>
       </c>
       <c r="F18">
-        <v>51.60876454631519</v>
+        <v>47.71981749207597</v>
       </c>
       <c r="G18">
-        <v>3.741770671083263</v>
+        <v>2.053640073300647</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.44796816234116</v>
+        <v>6.187763295467721</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.59292087760686</v>
+        <v>7.375423499902912</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.42010953865235</v>
+        <v>13.96326286198246</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.5866181073846</v>
+        <v>35.38421307756308</v>
       </c>
       <c r="C19">
-        <v>12.64023330108089</v>
+        <v>22.08197896077732</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.02973103069325</v>
+        <v>6.344434182348838</v>
       </c>
       <c r="F19">
-        <v>51.58753152427376</v>
+        <v>47.56434136259016</v>
       </c>
       <c r="G19">
-        <v>3.742157500622206</v>
+        <v>2.054953243392971</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.45017523095427</v>
+        <v>6.19369192786561</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.59301310442018</v>
+        <v>7.36047555162747</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.42445431579455</v>
+        <v>13.98028736673963</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.7533885220852</v>
+        <v>36.141720157116</v>
       </c>
       <c r="C20">
-        <v>12.82951082379363</v>
+        <v>22.57997273738482</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.03819971420294</v>
+        <v>6.406176364487905</v>
       </c>
       <c r="F20">
-        <v>51.68388511581702</v>
+        <v>48.26530699481386</v>
       </c>
       <c r="G20">
-        <v>3.740426682044055</v>
+        <v>2.049040809407362</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.44032067793946</v>
+        <v>6.167286108210384</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.59272094269062</v>
+        <v>7.427890447439288</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.40503731395048</v>
+        <v>13.9041259150606</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.31710258929564</v>
+        <v>38.64417964492585</v>
       </c>
       <c r="C21">
-        <v>13.44996189534287</v>
+        <v>24.22437898159869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.06648653750366</v>
+        <v>6.61958320062628</v>
       </c>
       <c r="F21">
-        <v>52.02151856274769</v>
+        <v>50.64515276917221</v>
       </c>
       <c r="G21">
-        <v>3.734784940626865</v>
+        <v>2.029078419490007</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.40856738832391</v>
+        <v>6.083703320004986</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.59388531037055</v>
+        <v>7.657009051861917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.34216369608973</v>
+        <v>13.65664356712828</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.68742732887587</v>
+        <v>40.25140430716251</v>
       </c>
       <c r="C22">
-        <v>13.84342763721294</v>
+        <v>25.2807330553335</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.084853933265</v>
+        <v>6.764527004181358</v>
       </c>
       <c r="F22">
-        <v>52.25235201667956</v>
+        <v>52.22177046213638</v>
       </c>
       <c r="G22">
-        <v>3.731226274323352</v>
+        <v>2.015899408900286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.38882643771372</v>
+        <v>6.033387808291881</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.59624026431456</v>
+        <v>7.808774471134576</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.30283811754617</v>
+        <v>13.50189971347913</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.4896431837013</v>
+        <v>39.39593312009953</v>
       </c>
       <c r="C23">
-        <v>13.63455743655829</v>
+        <v>24.71840002313836</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.07506156052845</v>
+        <v>6.686594291392706</v>
       </c>
       <c r="F23">
-        <v>52.12823386169019</v>
+        <v>51.37813663351751</v>
       </c>
       <c r="G23">
-        <v>3.733113893424147</v>
+        <v>2.022949613322731</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.39926995030477</v>
+        <v>6.059813057761643</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.59483790188933</v>
+        <v>7.727582366493532</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.32366510638106</v>
+        <v>13.58379577781203</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.7442159464253</v>
+        <v>36.10028992569944</v>
       </c>
       <c r="C24">
-        <v>12.81917355503657</v>
+        <v>22.55274078237785</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.03773529381916</v>
+        <v>6.40276570636788</v>
       </c>
       <c r="F24">
-        <v>51.6785410918277</v>
+        <v>48.22672626762888</v>
       </c>
       <c r="G24">
-        <v>3.740521075240168</v>
+        <v>2.049365719525165</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.4408567403073</v>
+        <v>6.168717952914202</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.59272890038292</v>
+        <v>7.424178622195623</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.40609471468834</v>
+        <v>13.90827833920067</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95237091175497</v>
+        <v>32.54698427946149</v>
       </c>
       <c r="C25">
-        <v>11.89134443317788</v>
+        <v>20.11901554410514</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.996928916878545</v>
+        <v>6.113883396861516</v>
       </c>
       <c r="F25">
-        <v>51.23831634227832</v>
+        <v>44.90262294769224</v>
       </c>
       <c r="G25">
-        <v>3.749068168753439</v>
+        <v>2.077656105801073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.49005524251856</v>
+        <v>6.301810249274352</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.59733136582204</v>
+        <v>7.105244285803157</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.50256900031225</v>
+        <v>14.28398212195216</v>
       </c>
       <c r="O25">
         <v>0</v>
